--- a/Project4230_I. L. Magalhaes(2022).xlsx
+++ b/Project4230_I. L. Magalhaes(2022).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34097F76-FFDD-8542-8217-A7C322E2C6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CA2F00-7B66-4334-A07D-BF7754B1D43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{77F1F6C2-35A7-D941-8ED6-BBEDF1D994A1}"/>
+    <workbookView xWindow="16455" yWindow="2730" windowWidth="15945" windowHeight="18375" xr2:uid="{77F1F6C2-35A7-D941-8ED6-BBEDF1D994A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Project4230" sheetId="1" r:id="rId1"/>
@@ -1042,55 +1042,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>73623</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>36812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>2814</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>36812</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B01C5B4-2973-AC39-62EB-A1BBB38AFEBE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8871594" y="312899"/>
-          <a:ext cx="10690086" cy="6681304"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1412,17 +1363,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D0014A-5D19-9042-B4C9-4EE58EB2FBC0}">
   <dimension ref="A1:C303"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.1640625" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.125" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>304</v>
       </c>
@@ -1444,7 +1393,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1455,7 +1404,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1466,7 +1415,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1477,7 +1426,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1488,7 +1437,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1499,7 +1448,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1510,7 +1459,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1521,7 +1470,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1532,7 +1481,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1543,7 +1492,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1554,7 +1503,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1565,7 +1514,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1576,7 +1525,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1587,7 +1536,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1598,7 +1547,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1609,7 +1558,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1620,7 +1569,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1631,7 +1580,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1642,7 +1591,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1653,7 +1602,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1664,7 +1613,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1675,7 +1624,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1686,7 +1635,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1697,7 +1646,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1708,7 +1657,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1719,7 +1668,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1730,7 +1679,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1741,7 +1690,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1752,7 +1701,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1763,7 +1712,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1774,7 +1723,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1785,7 +1734,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1796,7 +1745,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1807,7 +1756,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1818,7 +1767,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1829,7 +1778,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1840,7 +1789,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1851,7 +1800,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1862,7 +1811,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1873,7 +1822,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1884,7 +1833,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1895,7 +1844,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1906,7 +1855,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1917,7 +1866,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1928,7 +1877,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1939,7 +1888,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1950,7 +1899,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1961,7 +1910,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1972,7 +1921,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1983,7 +1932,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1994,7 +1943,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2005,7 +1954,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2016,7 +1965,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2027,7 +1976,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2038,7 +1987,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2049,7 +1998,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2060,7 +2009,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2071,7 +2020,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2082,7 +2031,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2093,7 +2042,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2104,7 +2053,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2115,7 +2064,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2126,7 +2075,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2137,7 +2086,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2148,7 +2097,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2159,7 +2108,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2170,7 +2119,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2181,7 +2130,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2192,7 +2141,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2203,7 +2152,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2214,7 +2163,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2225,7 +2174,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2236,7 +2185,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2247,7 +2196,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2258,7 +2207,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2269,7 +2218,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2280,7 +2229,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2291,7 +2240,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2302,7 +2251,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2313,7 +2262,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2324,7 +2273,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2335,7 +2284,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2346,7 +2295,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2357,7 +2306,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2368,7 +2317,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2379,7 +2328,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2390,7 +2339,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2401,7 +2350,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2412,7 +2361,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2423,7 +2372,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2434,7 +2383,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2445,7 +2394,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2456,7 +2405,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2467,7 +2416,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2478,7 +2427,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2489,7 +2438,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2500,7 +2449,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2511,7 +2460,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2522,7 +2471,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2533,7 +2482,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2544,7 +2493,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2555,7 +2504,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2566,7 +2515,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2577,7 +2526,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2588,7 +2537,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2599,7 +2548,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2610,7 +2559,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2621,7 +2570,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2632,7 +2581,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2643,7 +2592,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2654,7 +2603,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2665,7 +2614,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2676,7 +2625,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2687,7 +2636,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2698,7 +2647,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2709,7 +2658,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2720,7 +2669,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2731,7 +2680,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2742,7 +2691,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2753,7 +2702,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2764,7 +2713,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2775,7 +2724,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2786,7 +2735,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2797,7 +2746,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2808,7 +2757,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2819,7 +2768,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2830,7 +2779,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2841,7 +2790,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2852,7 +2801,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2863,7 +2812,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -2874,7 +2823,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -2885,7 +2834,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -2896,7 +2845,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -2907,7 +2856,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -2918,7 +2867,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -2926,7 +2875,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -2937,7 +2886,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -2948,7 +2897,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -2959,7 +2908,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -2970,7 +2919,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -2981,7 +2930,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -2992,7 +2941,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -3003,7 +2952,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -3011,7 +2960,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -3022,7 +2971,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -3033,7 +2982,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -3044,7 +2993,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -3055,7 +3004,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -3066,7 +3015,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -3077,7 +3026,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -3088,7 +3037,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -3099,7 +3048,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -3110,7 +3059,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -3121,7 +3070,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -3132,7 +3081,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -3143,7 +3092,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -3154,7 +3103,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -3165,7 +3114,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -3176,7 +3125,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -3187,7 +3136,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -3198,7 +3147,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -3209,7 +3158,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -3220,7 +3169,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -3231,7 +3180,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -3242,7 +3191,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -3253,7 +3202,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -3264,7 +3213,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -3275,7 +3224,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -3286,7 +3235,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -3297,7 +3246,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -3308,7 +3257,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -3319,7 +3268,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -3330,7 +3279,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -3341,7 +3290,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -3352,7 +3301,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -3363,7 +3312,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -3374,7 +3323,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -3385,7 +3334,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -3396,7 +3345,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -3407,7 +3356,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -3418,7 +3367,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -3429,7 +3378,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -3440,7 +3389,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -3451,7 +3400,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -3462,7 +3411,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -3473,7 +3422,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -3484,7 +3433,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -3495,7 +3444,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -3506,7 +3455,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -3517,7 +3466,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -3528,7 +3477,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -3539,7 +3488,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -3550,7 +3499,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -3561,7 +3510,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -3572,7 +3521,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -3583,7 +3532,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -3594,7 +3543,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -3605,7 +3554,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -3616,7 +3565,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -3627,7 +3576,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -3638,7 +3587,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -3649,7 +3598,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -3660,7 +3609,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -3668,7 +3617,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -3679,7 +3628,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -3690,7 +3639,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -3701,7 +3650,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -3712,7 +3661,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -3723,7 +3672,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -3734,7 +3683,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -3745,7 +3694,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -3756,7 +3705,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -3767,7 +3716,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -3778,7 +3727,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -3789,7 +3738,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -3800,7 +3749,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -3811,7 +3760,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -3822,7 +3771,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -3830,7 +3779,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -3841,7 +3790,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -3852,7 +3801,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -3863,7 +3812,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -3874,7 +3823,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -3885,7 +3834,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -3896,7 +3845,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -3907,7 +3856,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -3918,7 +3867,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -3929,7 +3878,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -3940,7 +3889,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -3951,7 +3900,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -3962,7 +3911,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -3973,7 +3922,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>234</v>
       </c>
@@ -3984,7 +3933,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>235</v>
       </c>
@@ -3995,7 +3944,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>236</v>
       </c>
@@ -4006,7 +3955,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -4017,7 +3966,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -4028,7 +3977,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -4039,7 +3988,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -4050,7 +3999,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -4061,7 +4010,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -4072,7 +4021,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -4083,7 +4032,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>244</v>
       </c>
@@ -4094,7 +4043,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -4105,7 +4054,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -4116,7 +4065,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>247</v>
       </c>
@@ -4127,7 +4076,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -4138,7 +4087,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -4149,7 +4098,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>250</v>
       </c>
@@ -4160,7 +4109,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>251</v>
       </c>
@@ -4171,7 +4120,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -4182,7 +4131,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>253</v>
       </c>
@@ -4193,7 +4142,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>254</v>
       </c>
@@ -4204,7 +4153,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>255</v>
       </c>
@@ -4215,7 +4164,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>256</v>
       </c>
@@ -4226,7 +4175,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>257</v>
       </c>
@@ -4237,7 +4186,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -4248,7 +4197,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>259</v>
       </c>
@@ -4259,7 +4208,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>260</v>
       </c>
@@ -4270,7 +4219,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>261</v>
       </c>
@@ -4281,7 +4230,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>262</v>
       </c>
@@ -4292,7 +4241,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>263</v>
       </c>
@@ -4303,7 +4252,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>264</v>
       </c>
@@ -4314,7 +4263,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>265</v>
       </c>
@@ -4325,7 +4274,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>266</v>
       </c>
@@ -4336,7 +4285,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>267</v>
       </c>
@@ -4347,7 +4296,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>268</v>
       </c>
@@ -4358,7 +4307,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>269</v>
       </c>
@@ -4369,7 +4318,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>270</v>
       </c>
@@ -4380,7 +4329,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>271</v>
       </c>
@@ -4391,7 +4340,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>272</v>
       </c>
@@ -4402,7 +4351,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>273</v>
       </c>
@@ -4413,7 +4362,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>274</v>
       </c>
@@ -4424,7 +4373,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>275</v>
       </c>
@@ -4435,7 +4384,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>276</v>
       </c>
@@ -4446,7 +4395,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -4457,7 +4406,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>278</v>
       </c>
@@ -4468,7 +4417,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>279</v>
       </c>
@@ -4479,7 +4428,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>280</v>
       </c>
@@ -4490,7 +4439,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>281</v>
       </c>
@@ -4501,7 +4450,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>282</v>
       </c>
@@ -4512,7 +4461,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>283</v>
       </c>
@@ -4523,7 +4472,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>284</v>
       </c>
@@ -4534,7 +4483,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>285</v>
       </c>
@@ -4545,7 +4494,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>286</v>
       </c>
@@ -4553,7 +4502,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>287</v>
       </c>
@@ -4564,7 +4513,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>288</v>
       </c>
@@ -4575,7 +4524,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>289</v>
       </c>
@@ -4586,7 +4535,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>290</v>
       </c>
@@ -4597,7 +4546,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>291</v>
       </c>
@@ -4608,7 +4557,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>292</v>
       </c>
@@ -4619,7 +4568,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>293</v>
       </c>
@@ -4630,7 +4579,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>294</v>
       </c>
@@ -4641,7 +4590,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>295</v>
       </c>
@@ -4652,7 +4601,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>296</v>
       </c>
@@ -4663,7 +4612,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>297</v>
       </c>
@@ -4674,7 +4623,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>298</v>
       </c>
@@ -4685,7 +4634,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>299</v>
       </c>
@@ -4696,7 +4645,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>300</v>
       </c>
@@ -4707,7 +4656,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>301</v>
       </c>
@@ -4718,7 +4667,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>302</v>
       </c>
@@ -4729,7 +4678,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>303</v>
       </c>
@@ -4743,6 +4692,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>